--- a/PREGAME/1. ELICITACIÓN/1.3 HISTORIAS DE USUARIO/GN3_Matriz de Marco de Trabajo HU_V1.1.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.3 HISTORIAS DE USUARIO/GN3_Matriz de Marco de Trabajo HU_V1.1.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Documentos\6to Semestre\analisis\27835_G3_ADS\PREGAME\1. ELICITACIÓN\1.3 HISTORIAS DE USUARIO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA280874-3356-45DD-B5DD-B7108C7250C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Formato descripción HU" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Historia de Usuario" sheetId="2" r:id="rId5"/>
+    <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
+    <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -96,9 +116,6 @@
     <t>Implementar validación en tiempo real</t>
   </si>
   <si>
-    <t>Gestión de Cuentas de Cliente</t>
-  </si>
-  <si>
     <t>RF1.2</t>
   </si>
   <si>
@@ -159,9 +176,6 @@
     <t>Implementar bloqueo después de 5 intentos fallidos</t>
   </si>
   <si>
-    <t>Autenticación de Acceso</t>
-  </si>
-  <si>
     <t>RF1.4</t>
   </si>
   <si>
@@ -186,9 +200,6 @@
     <t>Implementar límite de intentos</t>
   </si>
   <si>
-    <t>Restablecimiento de Credenciales</t>
-  </si>
-  <si>
     <t>RF1.5</t>
   </si>
   <si>
@@ -213,9 +224,6 @@
     <t>Disponible en todas las vistas internas</t>
   </si>
   <si>
-    <t xml:space="preserve">Cierre de Sesión </t>
-  </si>
-  <si>
     <t>RF1.6</t>
   </si>
   <si>
@@ -240,9 +248,6 @@
     <t>Debe ser responsive y con datos en tiempo real</t>
   </si>
   <si>
-    <t>Visualización de Dashboard por Rol</t>
-  </si>
-  <si>
     <t>RF-2</t>
   </si>
   <si>
@@ -264,9 +269,6 @@
     <t>Integrar con pasarelas de pago externas</t>
   </si>
   <si>
-    <t>Registro de Comprobantes</t>
-  </si>
-  <si>
     <t>RF-3</t>
   </si>
   <si>
@@ -291,9 +293,6 @@
     <t>Implementar lógica de aplicación de pagos según reglas de negocio</t>
   </si>
   <si>
-    <t>Procesamiento de Transacciones a Crédito</t>
-  </si>
-  <si>
     <t>RF-4</t>
   </si>
   <si>
@@ -318,9 +317,6 @@
     <t>Soportar CSV, XLSX y API de sistemas externos</t>
   </si>
   <si>
-    <t>Sincronización de Datos Externos</t>
-  </si>
-  <si>
     <t>RF-5.1</t>
   </si>
   <si>
@@ -342,9 +338,6 @@
     <t>Implementar validación de historial crediticio</t>
   </si>
   <si>
-    <t>Asignación de Líneas de Crédito</t>
-  </si>
-  <si>
     <t>RF-5.2</t>
   </si>
   <si>
@@ -369,9 +362,6 @@
     <t>Implementar seguridad PCI DSS</t>
   </si>
   <si>
-    <t>Integración de Pasarela de Pago</t>
-  </si>
-  <si>
     <t>RF-5.3</t>
   </si>
   <si>
@@ -393,9 +383,6 @@
     <t>Mostrar información en la misma página</t>
   </si>
   <si>
-    <t>Consulta de Términos Crediticios</t>
-  </si>
-  <si>
     <t>RF-5.4</t>
   </si>
   <si>
@@ -417,9 +404,6 @@
     <t>Incluir representación visual (gráficos)</t>
   </si>
   <si>
-    <t>Monitoreo de Estado de Crédito</t>
-  </si>
-  <si>
     <t>RF-5.5</t>
   </si>
   <si>
@@ -441,9 +425,6 @@
     <t>Incluir logo y marca de agua de seguridad</t>
   </si>
   <si>
-    <t>Generación Documental (Certificados)</t>
-  </si>
-  <si>
     <t>RF-6.1</t>
   </si>
   <si>
@@ -465,9 +446,6 @@
     <t>Implementar autocompletado en búsqueda</t>
   </si>
   <si>
-    <t>Generar Reporte Pago Cliente</t>
-  </si>
-  <si>
     <t>RF-6.2</t>
   </si>
   <si>
@@ -489,9 +467,6 @@
     <t>Limitar rango máximo a un año</t>
   </si>
   <si>
-    <t>Reporte de Flujo de Caja por Rango Temporal</t>
-  </si>
-  <si>
     <t>RF-6.3</t>
   </si>
   <si>
@@ -516,9 +491,6 @@
     <t>Incluir indicadores visuales de severidad</t>
   </si>
   <si>
-    <t>Identificación de Clientes en Riesgo</t>
-  </si>
-  <si>
     <t>RF-6.4</t>
   </si>
   <si>
@@ -540,9 +512,6 @@
     <t>Implementar índice invertido para búsquedas rápidas</t>
   </si>
   <si>
-    <t>Consultar Información Cliente</t>
-  </si>
-  <si>
     <t>RF-6.5</t>
   </si>
   <si>
@@ -564,9 +533,6 @@
     <t>Permitir filtros por fecha o estado</t>
   </si>
   <si>
-    <t>Consultar Información Pagos Cliente</t>
-  </si>
-  <si>
     <t>RF-7</t>
   </si>
   <si>
@@ -588,9 +554,6 @@
     <t>Diseño debe ser claro y comprensible</t>
   </si>
   <si>
-    <t>Visualización de Estado de Cuenta Integral</t>
-  </si>
-  <si>
     <t>RF-8.1</t>
   </si>
   <si>
@@ -615,9 +578,6 @@
     <t>Definir criterios de 'riesgo de morosidad'</t>
   </si>
   <si>
-    <t>Notificaciones de Riesgo de Incumplimiento</t>
-  </si>
-  <si>
     <t>RF-8.2</t>
   </si>
   <si>
@@ -639,9 +599,6 @@
     <t>Configurar ventana de anticipación (actualmente 3 días)</t>
   </si>
   <si>
-    <t>Notificaciones de Próximo Vencimiento</t>
-  </si>
-  <si>
     <t>RF-8.3</t>
   </si>
   <si>
@@ -663,9 +620,6 @@
     <t>Incluir información de monto adeudado e intereses</t>
   </si>
   <si>
-    <t>Notificaciones de Mora</t>
-  </si>
-  <si>
     <t>En proceso</t>
   </si>
   <si>
@@ -706,94 +660,164 @@
   </si>
   <si>
     <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>Registro de Cuenta de Cliente</t>
+  </si>
+  <si>
+    <t>Inicio de Sesión Multirole</t>
+  </si>
+  <si>
+    <t>Recuperación de Contraseña</t>
+  </si>
+  <si>
+    <t>Cierre Seguro de Sesión</t>
+  </si>
+  <si>
+    <t>Acceso a Dashboard Personalizado</t>
+  </si>
+  <si>
+    <t>Carga y Registro de Comprobantes</t>
+  </si>
+  <si>
+    <t>Abono a Crédito Activo</t>
+  </si>
+  <si>
+    <t>Importación Masiva de Facturación</t>
+  </si>
+  <si>
+    <t>Otorgamiento de Crédito a Cliente</t>
+  </si>
+  <si>
+    <t>Pago de Cuotas en Línea</t>
+  </si>
+  <si>
+    <t>Visualización de Condiciones del Crédito</t>
+  </si>
+  <si>
+    <t>Seguimiento de Saldo y Cuotas</t>
+  </si>
+  <si>
+    <t>Descarga de Certificados de Pago</t>
+  </si>
+  <si>
+    <t>Reporte Individual de Pagos</t>
+  </si>
+  <si>
+    <t>Reporte de Pagos por Fechas</t>
+  </si>
+  <si>
+    <t>Reporte de Riesgo de Morosidad</t>
+  </si>
+  <si>
+    <t>Búsqueda Rápida de Clientes</t>
+  </si>
+  <si>
+    <t>Consulta de Historial de Pagos</t>
+  </si>
+  <si>
+    <t>Vista Global de Estado de Cuenta</t>
+  </si>
+  <si>
+    <t>Alerta de Vencimiento Crítico</t>
+  </si>
+  <si>
+    <t>Aviso Preventivo de Vencimiento</t>
+  </si>
+  <si>
+    <t>Notificación de Deuda Vencida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="15">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial Narrow&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial Narrow&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
     </font>
@@ -803,7 +827,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -855,27 +879,39 @@
     </fill>
   </fills>
   <borders count="31">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -885,6 +921,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -899,14 +936,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -915,9 +956,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -928,6 +971,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -936,6 +980,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -946,6 +991,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -954,12 +1000,14 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -968,6 +1016,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -979,27 +1028,39 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1008,71 +1069,27 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1083,6 +1100,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1091,6 +1109,89 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1101,180 +1202,188 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="71">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="7" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1286,30 +1395,33 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1320,11 +1432,17 @@
     <xdr:ext cx="1066800" cy="1162050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="2" name="image1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1348,11 +1466,17 @@
     <xdr:ext cx="1095375" cy="1162050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="3" name="image2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1370,7 +1494,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1560,33 +1684,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Y969"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.63"/>
-    <col customWidth="1" min="2" max="2" width="6.63"/>
-    <col customWidth="1" min="3" max="5" width="20.63"/>
-    <col customWidth="1" min="6" max="6" width="13.13"/>
-    <col customWidth="1" min="7" max="7" width="32.5"/>
-    <col customWidth="1" min="8" max="12" width="10.63"/>
-    <col customWidth="1" min="13" max="13" width="32.75"/>
-    <col customWidth="1" min="14" max="15" width="20.63"/>
-    <col customWidth="1" min="16" max="25" width="9.38"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" customWidth="1"/>
+    <col min="3" max="5" width="20.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="8" max="12" width="10.59765625" customWidth="1"/>
+    <col min="13" max="13" width="32.69921875" customWidth="1"/>
+    <col min="14" max="15" width="20.59765625" customWidth="1"/>
+    <col min="16" max="25" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" ht="13.8">
       <c r="A1" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1613,7 +1742,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="13.8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1640,24 +1769,24 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" ht="45.0" customHeight="1">
+    <row r="3" spans="1:25" ht="45" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1669,7 +1798,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="13.8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1696,48 +1825,48 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" ht="60.0" customHeight="1">
+    <row r="5" spans="1:25" ht="60" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="1"/>
@@ -1751,49 +1880,49 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" ht="75.75" customHeight="1">
+    <row r="6" spans="1:25" ht="82.8">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>45874.0</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="I6" s="6">
+        <v>20</v>
+      </c>
+      <c r="J6" s="7">
+        <v>45874</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>26</v>
+      <c r="O6" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1806,49 +1935,49 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" ht="75.75" customHeight="1">
+    <row r="7" spans="1:25" ht="82.8">
       <c r="A7" s="1"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="9">
+        <v>18</v>
+      </c>
+      <c r="J7" s="11">
+        <v>45874</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>45874.0</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="L7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1861,49 +1990,49 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" ht="75.75" customHeight="1">
+    <row r="8" spans="1:25" ht="96.6">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="9">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11">
+        <v>45874</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>45874.0</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="16" t="s">
+      <c r="N8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>47</v>
+      <c r="O8" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1916,49 +2045,49 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" ht="75.75" customHeight="1">
+    <row r="9" spans="1:25" ht="82.8">
       <c r="A9" s="1"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="F9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="I9" s="9">
+        <v>25</v>
+      </c>
+      <c r="J9" s="11">
+        <v>45877</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="N9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>45877.0</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>56</v>
+      <c r="O9" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1971,49 +2100,49 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" ht="64.5" customHeight="1">
+    <row r="10" spans="1:25" ht="69">
       <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="F10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9">
+        <v>8</v>
+      </c>
+      <c r="J10" s="11">
+        <v>45874</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="L10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="N10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>45874.0</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>65</v>
+      <c r="O10" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2026,49 +2155,49 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" ht="61.5" customHeight="1">
+    <row r="11" spans="1:25" ht="82.8">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="H11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="9">
+        <v>30</v>
+      </c>
+      <c r="J11" s="11">
+        <v>45879</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="M11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="N11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>45879.0</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>74</v>
+      <c r="O11" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2081,49 +2210,49 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" ht="70.5" customHeight="1">
+    <row r="12" spans="1:25" ht="96.6">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="9">
+        <v>35</v>
+      </c>
+      <c r="J12" s="11">
+        <v>45881</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="N12" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="12">
-        <v>35.0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>45881.0</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>82</v>
+      <c r="O12" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2136,49 +2265,49 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" ht="61.5" customHeight="1">
+    <row r="13" spans="1:25" ht="82.8">
       <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="9">
+        <v>40</v>
+      </c>
+      <c r="J13" s="11">
+        <v>45884</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="N13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="12">
-        <v>40.0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>45884.0</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>91</v>
+      <c r="O13" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2191,49 +2320,49 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" ht="58.5" customHeight="1">
+    <row r="14" spans="1:25" ht="96.6">
       <c r="A14" s="1"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9">
+        <v>45</v>
+      </c>
+      <c r="J14" s="11">
+        <v>45887</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="12">
-        <v>45.0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>45887.0</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>100</v>
+      <c r="O14" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2246,49 +2375,49 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" ht="39.75" customHeight="1">
+    <row r="15" spans="1:25" ht="82.8">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="B15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="9">
+        <v>25</v>
+      </c>
+      <c r="J15" s="11">
+        <v>45884</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>45884.0</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>108</v>
+      <c r="M15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2301,49 +2430,49 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" ht="72.0" customHeight="1">
+    <row r="16" spans="1:25" ht="96.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="B16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="12">
-        <v>50.0</v>
-      </c>
-      <c r="J16" s="14">
-        <v>45889.0</v>
-      </c>
-      <c r="K16" s="15" t="s">
+      <c r="G16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="9">
+        <v>50</v>
+      </c>
+      <c r="J16" s="11">
+        <v>45889</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>117</v>
+      <c r="L16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2356,49 +2485,49 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" ht="39.75" customHeight="1">
+    <row r="17" spans="1:25" ht="82.8">
       <c r="A17" s="1"/>
-      <c r="B17" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="B17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="J17" s="14">
-        <v>45881.0</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="12" t="s">
+      <c r="G17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="9">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11">
+        <v>45881</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>125</v>
+      <c r="M17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2411,49 +2540,49 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" ht="39.75" customHeight="1">
+    <row r="18" spans="1:25" ht="96.6">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="B18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="J18" s="14">
-        <v>45881.0</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="12" t="s">
+      <c r="I18" s="9">
+        <v>25</v>
+      </c>
+      <c r="J18" s="11">
+        <v>45881</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>133</v>
+      <c r="M18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2466,49 +2595,49 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" ht="39.75" customHeight="1">
+    <row r="19" spans="1:25" ht="96.6">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="J19" s="14">
-        <v>45884.0</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="G19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="9">
+        <v>30</v>
+      </c>
+      <c r="J19" s="11">
+        <v>45884</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>141</v>
+      <c r="M19" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2521,49 +2650,49 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="82.8">
       <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="12">
-        <v>28.0</v>
-      </c>
-      <c r="J20" s="14">
-        <v>45887.0</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="B20" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="9">
+        <v>28</v>
+      </c>
+      <c r="J20" s="11">
+        <v>45887</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>149</v>
+      <c r="M20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2576,49 +2705,49 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="96.6">
       <c r="A21" s="1"/>
-      <c r="B21" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="J21" s="14">
-        <v>45887.0</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="12" t="s">
+      <c r="B21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="9">
+        <v>30</v>
+      </c>
+      <c r="J21" s="11">
+        <v>45887</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>157</v>
+      <c r="M21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2631,49 +2760,49 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="96.6">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="B22" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="12">
-        <v>35.0</v>
-      </c>
-      <c r="J22" s="14">
-        <v>45889.0</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="I22" s="9">
+        <v>35</v>
+      </c>
+      <c r="J22" s="11">
+        <v>45889</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>166</v>
+      <c r="M22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2686,49 +2815,49 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="96.6">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="J23" s="14">
-        <v>45879.0</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="12" t="s">
+      <c r="B23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="9">
+        <v>18</v>
+      </c>
+      <c r="J23" s="11">
+        <v>45879</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>174</v>
+      <c r="M23" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2741,49 +2870,49 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="82.8">
       <c r="A24" s="1"/>
-      <c r="B24" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="B24" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="J24" s="14">
-        <v>45881.0</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="12" t="s">
+      <c r="H24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="9">
+        <v>22</v>
+      </c>
+      <c r="J24" s="11">
+        <v>45881</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>182</v>
+      <c r="M24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2796,49 +2925,49 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" ht="75.75" customHeight="1">
+    <row r="25" spans="1:25" ht="96.6">
       <c r="A25" s="1"/>
-      <c r="B25" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="12">
-        <v>40.0</v>
-      </c>
-      <c r="J25" s="14">
-        <v>45891.0</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>190</v>
+      <c r="B25" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="9">
+        <v>40</v>
+      </c>
+      <c r="J25" s="11">
+        <v>45891</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2851,49 +2980,49 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" ht="75.75" customHeight="1">
+    <row r="26" spans="1:25" ht="82.8">
       <c r="A26" s="1"/>
-      <c r="B26" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="B26" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="J26" s="14">
-        <v>45894.0</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="12" t="s">
+      <c r="I26" s="9">
+        <v>25</v>
+      </c>
+      <c r="J26" s="11">
+        <v>45894</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>199</v>
+      <c r="M26" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2906,49 +3035,49 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" ht="75.75" customHeight="1">
+    <row r="27" spans="1:25" ht="96.6">
       <c r="A27" s="1"/>
-      <c r="B27" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="J27" s="14">
-        <v>45894.0</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="12" t="s">
+      <c r="B27" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="9">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <v>45894</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>207</v>
+      <c r="M27" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2961,49 +3090,49 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" ht="75.75" customHeight="1">
+    <row r="28" spans="1:25" ht="82.8">
       <c r="A28" s="1"/>
-      <c r="B28" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="B28" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="J28" s="14">
-        <v>45894.0</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="12" t="s">
+      <c r="G28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="9">
+        <v>22</v>
+      </c>
+      <c r="J28" s="11">
+        <v>45894</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>215</v>
+      <c r="M28" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -3016,7 +3145,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" ht="19.5" customHeight="1">
+    <row r="29" spans="1:25" ht="19.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3043,7 +3172,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" ht="19.5" customHeight="1">
+    <row r="30" spans="1:25" ht="19.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3070,7 +3199,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1">
+    <row r="31" spans="1:25" ht="19.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3079,11 +3208,11 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>216</v>
+      <c r="I31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3101,7 +3230,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3110,11 +3239,11 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>218</v>
+      <c r="I32" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3132,7 +3261,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3141,11 +3270,11 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>220</v>
+      <c r="I33" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3163,7 +3292,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3190,7 +3319,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3217,7 +3346,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3244,7 +3373,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3271,7 +3400,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3298,7 +3427,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3325,7 +3454,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3352,7 +3481,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3379,7 +3508,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3406,7 +3535,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3433,7 +3562,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3460,7 +3589,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3487,7 +3616,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3514,7 +3643,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3541,7 +3670,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3568,7 +3697,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3595,7 +3724,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3622,7 +3751,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3649,7 +3778,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3676,7 +3805,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3703,7 +3832,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3730,7 +3859,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3757,7 +3886,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3784,7 +3913,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3811,7 +3940,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3838,7 +3967,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3865,7 +3994,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3892,7 +4021,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3919,7 +4048,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3946,7 +4075,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3973,7 +4102,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4000,7 +4129,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4027,7 +4156,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4054,7 +4183,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4081,7 +4210,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4108,7 +4237,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4135,7 +4264,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4162,7 +4291,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4189,7 +4318,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4216,7 +4345,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4243,7 +4372,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4270,7 +4399,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4297,7 +4426,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4324,7 +4453,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4351,7 +4480,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4378,7 +4507,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4405,7 +4534,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4432,7 +4561,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4459,7 +4588,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4486,7 +4615,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4513,7 +4642,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4540,7 +4669,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4567,7 +4696,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4594,7 +4723,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4621,7 +4750,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4648,7 +4777,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4675,7 +4804,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4702,7 +4831,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4729,7 +4858,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4756,7 +4885,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4783,7 +4912,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4810,7 +4939,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4837,7 +4966,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4864,7 +4993,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4891,7 +5020,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4918,7 +5047,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4945,7 +5074,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4972,7 +5101,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4999,7 +5128,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5026,7 +5155,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5053,7 +5182,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5080,7 +5209,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5107,7 +5236,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5134,7 +5263,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5161,7 +5290,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5188,7 +5317,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5215,7 +5344,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5242,7 +5371,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5269,7 +5398,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5296,7 +5425,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5323,7 +5452,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5350,7 +5479,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5377,7 +5506,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5404,7 +5533,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5431,7 +5560,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5458,7 +5587,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5485,7 +5614,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5512,7 +5641,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5539,7 +5668,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5566,7 +5695,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5593,7 +5722,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5620,7 +5749,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5647,7 +5776,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5674,7 +5803,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5701,7 +5830,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5728,7 +5857,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5755,7 +5884,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5782,7 +5911,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5809,7 +5938,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5836,7 +5965,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5863,7 +5992,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5890,7 +6019,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5917,7 +6046,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5944,7 +6073,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5971,7 +6100,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5998,7 +6127,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6025,7 +6154,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6052,7 +6181,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6079,7 +6208,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6106,7 +6235,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6133,7 +6262,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6160,7 +6289,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6187,7 +6316,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6214,7 +6343,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6241,7 +6370,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6268,7 +6397,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6295,7 +6424,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6322,7 +6451,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6349,7 +6478,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6376,7 +6505,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6403,7 +6532,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6430,7 +6559,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6457,7 +6586,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6484,7 +6613,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6511,7 +6640,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6538,7 +6667,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6565,7 +6694,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6592,7 +6721,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6619,7 +6748,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6646,7 +6775,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6673,7 +6802,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6700,7 +6829,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6727,7 +6856,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6754,7 +6883,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6781,7 +6910,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6808,7 +6937,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6835,7 +6964,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6862,7 +6991,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6889,7 +7018,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6916,7 +7045,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6943,7 +7072,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6970,7 +7099,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6997,7 +7126,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7024,7 +7153,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7051,7 +7180,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7078,7 +7207,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7105,7 +7234,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7132,7 +7261,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7159,7 +7288,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7186,7 +7315,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7213,7 +7342,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7240,7 +7369,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7267,7 +7396,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7294,7 +7423,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7321,7 +7450,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7348,7 +7477,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7375,7 +7504,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7402,7 +7531,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7429,7 +7558,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7456,7 +7585,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7483,7 +7612,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7510,7 +7639,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7537,7 +7666,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7564,7 +7693,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7591,7 +7720,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7618,7 +7747,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7645,7 +7774,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7672,7 +7801,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7699,7 +7828,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7726,7 +7855,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7753,7 +7882,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7780,7 +7909,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7807,9 +7936,9 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="206" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="207" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="208" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="209" ht="15.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
@@ -8605,1173 +8734,1179 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K28">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Alta,Media ,Baja"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.5511811023622047" footer="0.0" header="0.0" left="0.31496062992125984" right="0.31496062992125984" top="0.7480314960629921"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.55118110236220474" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A2:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.38"/>
-    <col customWidth="1" min="2" max="2" width="2.63"/>
-    <col customWidth="1" min="3" max="15" width="10.63"/>
-    <col customWidth="1" min="16" max="16" width="2.63"/>
-    <col customWidth="1" min="17" max="26" width="9.38"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" customWidth="1"/>
+    <col min="3" max="15" width="10.59765625" customWidth="1"/>
+    <col min="16" max="16" width="2.59765625" customWidth="1"/>
+    <col min="17" max="26" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="3" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="4" hidden="1">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" hidden="1">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" ht="39.75" customHeight="1">
-      <c r="B6" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" ht="9.75" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-    </row>
-    <row r="8" ht="9.75" customHeight="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="24"/>
-    </row>
-    <row r="9" ht="30.0" customHeight="1">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32" t="s">
+    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1"/>
+    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.4" hidden="1">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.4" hidden="1">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:26" ht="39.75" customHeight="1">
+      <c r="B6" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+    </row>
+    <row r="7" spans="1:26" ht="9.75" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+    </row>
+    <row r="8" spans="1:26" ht="9.75" customHeight="1">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:26" ht="30" customHeight="1">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="24"/>
-    </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39" t="str">
+      <c r="I9" s="43"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" customHeight="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="55" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,5,0)</f>
         <v>Cliente</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="39" t="str">
+      <c r="F10" s="43"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="55" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" ht="9.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-    </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="34" t="s">
+      <c r="I10" s="43"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:26" ht="9.75" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" ht="30" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-    </row>
-    <row r="13" ht="30.0" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="43">
+      <c r="F12" s="43"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="36">
         <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O28,8,0)</f>
         <v>22</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39" t="str">
+      <c r="D13" s="32"/>
+      <c r="E13" s="55" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="39" t="str">
+      <c r="F13" s="43"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="55" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,7,0)</f>
         <v>Simone Medina</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-    </row>
-    <row r="14" ht="9.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="45" t="str">
+      <c r="I13" s="43"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+    </row>
+    <row r="14" spans="1:26" ht="9.75" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+    </row>
+    <row r="15" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="56" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,3,0)</f>
         <v>Alertar sobre obligaciones no cumplidas en fecha</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="45" t="str">
+      <c r="E15" s="45"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="56" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,4,0)</f>
         <v>Para informar estado de deuda y solicitar regularización</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="M15" s="49" t="str">
+      <c r="I15" s="51"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="M15" s="60" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,6,0)</f>
         <v>Verificación diaria automática de cuotas vencidas sin pago</v>
       </c>
-      <c r="N15" s="48"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-    </row>
-    <row r="18" ht="9.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="B19" s="31"/>
-      <c r="C19" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="58" t="str">
+      <c r="N15" s="51"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+    </row>
+    <row r="16" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+    </row>
+    <row r="17" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+    </row>
+    <row r="18" spans="1:26" ht="9.75" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+    </row>
+    <row r="19" spans="1:26" ht="19.5" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="61" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,14,0)</f>
-        <v>Notificaciones de Mora</v>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="24"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="B20" s="31"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="24"/>
-    </row>
-    <row r="21" ht="9.75" customHeight="1">
-      <c r="B21" s="31"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="24"/>
-    </row>
-    <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="65" t="str">
+        <v>Notificación de Deuda Vencida</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:26" ht="19.5" customHeight="1">
+      <c r="B20" s="26"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:26" ht="9.75" customHeight="1">
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="68" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,12,0)</f>
         <v>Verificar identificación de cuotas vencidas sin pago. Validar generación de notificación de deuda. Confirmar envío al cliente. Probar registro en sistema. Validar que se envíe solo una vez por cuota vencida.</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="64" t="s">
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="66" t="str">
+      <c r="K22" s="45"/>
+      <c r="L22" s="50" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,13,0)</f>
         <v>Incluir información de monto adeudado e intereses</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-    </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="51"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-    </row>
-    <row r="25" ht="9.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-    </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-    </row>
-    <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-    </row>
-    <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-    </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-    </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-    </row>
-    <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-    </row>
-    <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-    </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-    </row>
-    <row r="35" ht="19.5" customHeight="1">
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-    </row>
-    <row r="36" ht="19.5" customHeight="1">
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-    </row>
-    <row r="37" ht="19.5" customHeight="1">
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-    </row>
-    <row r="38" ht="19.5" customHeight="1">
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-    </row>
-    <row r="39" ht="19.5" customHeight="1">
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-    </row>
-    <row r="40" ht="19.5" customHeight="1">
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-    </row>
-    <row r="41" ht="19.5" customHeight="1">
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-    </row>
-    <row r="42" ht="19.5" customHeight="1">
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-    </row>
-    <row r="43" ht="19.5" customHeight="1">
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-    </row>
-    <row r="44" ht="19.5" customHeight="1">
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-    </row>
-    <row r="45" ht="19.5" customHeight="1">
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-    </row>
-    <row r="46" ht="19.5" customHeight="1">
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-    </row>
-    <row r="47" ht="19.5" customHeight="1">
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-    </row>
-    <row r="48" ht="19.5" customHeight="1">
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-    </row>
-    <row r="49" ht="19.5" customHeight="1">
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-    </row>
-    <row r="50" ht="19.5" customHeight="1">
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-    </row>
-    <row r="51" ht="19.5" customHeight="1">
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-    </row>
-    <row r="52" ht="19.5" customHeight="1">
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-    </row>
-    <row r="53" ht="19.5" customHeight="1">
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-    </row>
-    <row r="54" ht="19.5" customHeight="1">
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+    </row>
+    <row r="23" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+    </row>
+    <row r="24" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+    </row>
+    <row r="25" spans="1:26" ht="9.75" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+    </row>
+    <row r="26" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+    </row>
+    <row r="27" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+    </row>
+    <row r="28" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+    </row>
+    <row r="29" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+    </row>
+    <row r="30" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+    </row>
+    <row r="31" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+    </row>
+    <row r="33" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+    </row>
+    <row r="34" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" spans="1:26" ht="19.5" customHeight="1">
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:26" ht="19.5" customHeight="1">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+    </row>
+    <row r="49" spans="3:16" ht="19.5" customHeight="1">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+    </row>
+    <row r="50" spans="3:16" ht="19.5" customHeight="1">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+    </row>
+    <row r="51" spans="3:16" ht="19.5" customHeight="1">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="3:16" ht="19.5" customHeight="1">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" spans="3:16" ht="19.5" customHeight="1">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="3:16" ht="19.5" customHeight="1">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+    </row>
+    <row r="55" spans="3:16" ht="15.75" customHeight="1">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+    </row>
+    <row r="56" spans="3:16" ht="15.75" customHeight="1"/>
+    <row r="57" spans="3:16" ht="15.75" customHeight="1"/>
+    <row r="58" spans="3:16" ht="15.75" customHeight="1"/>
+    <row r="59" spans="3:16" ht="15.75" customHeight="1"/>
+    <row r="60" spans="3:16" ht="15.75" customHeight="1"/>
+    <row r="61" spans="3:16" ht="15.75" customHeight="1"/>
+    <row r="62" spans="3:16" ht="15.75" customHeight="1"/>
+    <row r="63" spans="3:16" ht="15.75" customHeight="1"/>
+    <row r="64" spans="3:16" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -10710,17 +10845,15 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="E22:H24"/>
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="L22:O24"/>
     <mergeCell ref="H12:I12"/>
@@ -10731,38 +10864,50 @@
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:O17"/>
     <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"En proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11">
-      <formula1>'Formato descripción HU'!$B$6:$B$23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10">
-      <formula1>'Formato descripción HU'!$B$6:$B$28</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>'Formato descripción HU'!$B$6:$B$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/PREGAME/1. ELICITACIÓN/1.3 HISTORIAS DE USUARIO/GN3_Matriz de Marco de Trabajo HU_V1.1.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.3 HISTORIAS DE USUARIO/GN3_Matriz de Marco de Trabajo HU_V1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Documentos\6to Semestre\analisis\27835_G3_ADS\PREGAME\1. ELICITACIÓN\1.3 HISTORIAS DE USUARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA280874-3356-45DD-B5DD-B7108C7250C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3B300-5DF7-4A6D-A64D-95CB58BBF761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="227">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Fernando Sandoval</t>
   </si>
   <si>
-    <t>Crítica</t>
-  </si>
-  <si>
     <t>No iniciado</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Visualizar widgets y accesos rápidos después de iniciar sesión</t>
   </si>
   <si>
-    <t>En diseño</t>
-  </si>
-  <si>
     <t>Verificar que cada rol vea su dashboard correspondiente. Validar carga de datos resumidos (créditos, pagos, reportes). Probar responsive design. Confirmar funcionamiento de accesos rápidos.</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
   </si>
   <si>
     <t>Seleccionar cuota pendiente, elegir método de pago, completar formulario y confirmar</t>
-  </si>
-  <si>
-    <t>En análisis</t>
   </si>
   <si>
     <t>Verificar listado de cuotas pendientes. Validar redirección a pasarela segura. Probar formulario de pago con datos válidos e inválidos. Confirmar procesamiento exitoso. Verificar actualización de estado de cuota. Validar generación de confirmación.</t>
@@ -1302,25 +1293,39 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,13 +1333,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1346,18 +1349,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1696,8 +1687,8 @@
   </sheetPr>
   <dimension ref="A1:Y969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1771,22 +1762,22 @@
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1910,19 +1901,19 @@
         <v>45874</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1938,25 +1929,25 @@
     <row r="7" spans="1:25" ht="82.8">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="I7" s="9">
         <v>18</v>
@@ -1965,19 +1956,19 @@
         <v>45874</v>
       </c>
       <c r="K7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1993,25 +1984,25 @@
     <row r="8" spans="1:25" ht="96.6">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="I8" s="9">
         <v>15</v>
@@ -2020,19 +2011,19 @@
         <v>45874</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="O8" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2048,25 +2039,25 @@
     <row r="9" spans="1:25" ht="82.8">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="I9" s="9">
         <v>25</v>
@@ -2075,19 +2066,19 @@
         <v>45877</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="M9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="O9" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2103,22 +2094,22 @@
     <row r="10" spans="1:25" ht="69">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>21</v>
@@ -2130,19 +2121,19 @@
         <v>45874</v>
       </c>
       <c r="K10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="O10" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2158,25 +2149,25 @@
     <row r="11" spans="1:25" ht="82.8">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="H11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9">
         <v>30</v>
@@ -2185,19 +2176,19 @@
         <v>45879</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="O11" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2213,25 +2204,25 @@
     <row r="12" spans="1:25" ht="96.6">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="9">
         <v>35</v>
@@ -2240,19 +2231,19 @@
         <v>45881</v>
       </c>
       <c r="K12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="M12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2268,25 +2259,25 @@
     <row r="13" spans="1:25" ht="82.8">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="H13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="9">
         <v>40</v>
@@ -2295,19 +2286,19 @@
         <v>45884</v>
       </c>
       <c r="K13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="M13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2323,22 +2314,22 @@
     <row r="14" spans="1:25" ht="96.6">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>21</v>
@@ -2350,19 +2341,19 @@
         <v>45887</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2378,25 +2369,25 @@
     <row r="15" spans="1:25" ht="82.8">
       <c r="A15" s="1"/>
       <c r="B15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9">
         <v>25</v>
@@ -2405,19 +2396,19 @@
         <v>45884</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2433,25 +2424,25 @@
     <row r="16" spans="1:25" ht="96.6">
       <c r="A16" s="1"/>
       <c r="B16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9">
         <v>50</v>
@@ -2460,19 +2451,19 @@
         <v>45889</v>
       </c>
       <c r="K16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="M16" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2488,25 +2479,25 @@
     <row r="17" spans="1:25" ht="82.8">
       <c r="A17" s="1"/>
       <c r="B17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9">
         <v>20</v>
@@ -2515,19 +2506,19 @@
         <v>45881</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2543,22 +2534,22 @@
     <row r="18" spans="1:25" ht="96.6">
       <c r="A18" s="1"/>
       <c r="B18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>21</v>
@@ -2570,19 +2561,19 @@
         <v>45881</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2598,25 +2589,25 @@
     <row r="19" spans="1:25" ht="96.6">
       <c r="A19" s="1"/>
       <c r="B19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9">
         <v>30</v>
@@ -2625,19 +2616,19 @@
         <v>45884</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2653,25 +2644,25 @@
     <row r="20" spans="1:25" ht="82.8">
       <c r="A20" s="1"/>
       <c r="B20" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="F20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9">
         <v>28</v>
@@ -2680,19 +2671,19 @@
         <v>45887</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2708,25 +2699,25 @@
     <row r="21" spans="1:25" ht="96.6">
       <c r="A21" s="1"/>
       <c r="B21" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="F21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="H21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9">
         <v>30</v>
@@ -2735,19 +2726,19 @@
         <v>45887</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2763,22 +2754,22 @@
     <row r="22" spans="1:25" ht="96.6">
       <c r="A22" s="1"/>
       <c r="B22" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>21</v>
@@ -2790,19 +2781,19 @@
         <v>45889</v>
       </c>
       <c r="K22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="M22" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2818,25 +2809,25 @@
     <row r="23" spans="1:25" ht="96.6">
       <c r="A23" s="1"/>
       <c r="B23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="F23" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="H23" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9">
         <v>18</v>
@@ -2845,19 +2836,19 @@
         <v>45879</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2873,25 +2864,25 @@
     <row r="24" spans="1:25" ht="82.8">
       <c r="A24" s="1"/>
       <c r="B24" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="F24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="H24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9">
         <v>22</v>
@@ -2900,19 +2891,19 @@
         <v>45881</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2928,25 +2919,25 @@
     <row r="25" spans="1:25" ht="96.6">
       <c r="A25" s="1"/>
       <c r="B25" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="H25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9">
         <v>40</v>
@@ -2955,19 +2946,19 @@
         <v>45891</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2983,22 +2974,22 @@
     <row r="26" spans="1:25" ht="82.8">
       <c r="A26" s="1"/>
       <c r="B26" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>21</v>
@@ -3010,19 +3001,19 @@
         <v>45894</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -3038,25 +3029,25 @@
     <row r="27" spans="1:25" ht="96.6">
       <c r="A27" s="1"/>
       <c r="B27" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="F27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="H27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9">
         <v>20</v>
@@ -3065,19 +3056,19 @@
         <v>45894</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -3093,25 +3084,25 @@
     <row r="28" spans="1:25" ht="82.8">
       <c r="A28" s="1"/>
       <c r="B28" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9">
         <v>22</v>
@@ -3120,19 +3111,19 @@
         <v>45894</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -3209,10 +3200,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3240,10 +3231,10 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3271,10 +3262,10 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -8778,23 +8769,23 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1">
-      <c r="B6" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
+      <c r="B6" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1">
       <c r="A7" s="19"/>
@@ -8848,15 +8839,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="43"/>
+      <c r="E9" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="44"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -8869,20 +8860,20 @@
     <row r="10" spans="1:26" ht="30" customHeight="1">
       <c r="B10" s="26"/>
       <c r="C10" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="55" t="str">
+      <c r="E10" s="61" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,5,0)</f>
         <v>Cliente</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="55" t="str">
+      <c r="H10" s="61" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="33"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -8924,18 +8915,18 @@
       <c r="A12" s="19"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="43"/>
+      <c r="H12" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="44"/>
       <c r="J12" s="33"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
@@ -8962,17 +8953,17 @@
         <v>22</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="55" t="str">
+      <c r="E13" s="61" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="55" t="str">
+      <c r="H13" s="61" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,7,0)</f>
         <v>Simone Medina</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="33"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
@@ -9022,34 +9013,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="56" t="str">
+      <c r="C15" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,3,0)</f>
         <v>Alertar sobre obligaciones no cumplidas en fecha</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="37"/>
-      <c r="G15" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="56" t="str">
+      <c r="G15" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,4,0)</f>
         <v>Para informar estado de deuda y solicitar regularización</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="45"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="M15" s="60" t="str">
+      <c r="L15" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" s="64" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,6,0)</f>
         <v>Verificación diaria automática de cuotas vencidas sin pago</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="45"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="49"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -9065,19 +9056,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="37"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="37"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="47"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -9093,19 +9084,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="37"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="49"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="37"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="49"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="51"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -9148,42 +9139,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="B19" s="26"/>
-      <c r="C19" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="61" t="str">
+      <c r="C19" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="65" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,14,0)</f>
         <v>Notificación de Deuda Vencida</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="67"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="B20" s="26"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="70"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="19"/>
     </row>
@@ -9208,29 +9199,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="68" t="str">
+      <c r="C22" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="55" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,12,0)</f>
         <v>Verificar identificación de cuotas vencidas sin pago. Validar generación de notificación de deuda. Confirmar envío al cliente. Probar registro en sistema. Validar que se envíe solo una vez por cuota vencida.</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="45"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="50" t="str">
+      <c r="K22" s="49"/>
+      <c r="L22" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,13,0)</f>
         <v>Incluir información de monto adeudado e intereses</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="45"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -9246,19 +9237,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="47"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="47"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="54"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -9274,19 +9265,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="51"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -10845,6 +10836,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -10861,11 +10857,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
